--- a/doc/10.17.2013 Meeting/Result.xlsx
+++ b/doc/10.17.2013 Meeting/Result.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="12750" yWindow="495" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
     <sheet name="Logstic" sheetId="4" r:id="rId2"/>
-    <sheet name="Train3" sheetId="2" r:id="rId3"/>
+    <sheet name="Train23" sheetId="2" r:id="rId3"/>
     <sheet name="combined-3way" sheetId="3" r:id="rId4"/>
     <sheet name="crf" sheetId="5" r:id="rId5"/>
+    <sheet name="other metric" sheetId="6" r:id="rId6"/>
+    <sheet name="cm" sheetId="7" r:id="rId7"/>
+    <sheet name="Errors" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="1089">
   <si>
     <t>inform</t>
   </si>
@@ -2970,6 +2973,321 @@
   </si>
   <si>
     <t xml:space="preserve">3way_crf_actngram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avgp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline_allmetrics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3way_actngram_allmetrics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestbyother_allmetrics </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>&lt;-classified as</t>
+  </si>
+  <si>
+    <t>a=-1</t>
+  </si>
+  <si>
+    <t>b=0</t>
+  </si>
+  <si>
+    <t>c=1</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>train2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>train3</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output trans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input trans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">top asr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">top slu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">True </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predict </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright When do you want to travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eight fifty p m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.ampm=pm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay When do you want to travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right away </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.rel=next) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your destination? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">braddock hill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.desc=hill)&amp;inform(to.neighborhood=braddock) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Where do you want to go? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mckeesport fifth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.desc=fifth)&amp;inform(to.neighborhood=mckeesport) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right When would you like to travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifty one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.hour=1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please use shorter answers because I have trouble understanding long sentences. What is your destination? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">forbes murray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.desc=forbes)&amp;inform(to.desc=murray) </t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright Where do you want to go? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">square </t>
+  </si>
+  <si>
+    <t xml:space="preserve">east liberty where </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.desc=liberty) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Where are you going? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">side </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shadyside </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.neighborhood=shadyside) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departing from ROBINSON. Did I get that right? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">affirm() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time do you want to travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hampton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.desc=hampton) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When would you like to travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">at one p m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m p m five </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.hour=5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are you going? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">children's hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swissvale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.neighborhood=swissvale) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At what time do you wanna travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nine a m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.ampm=am;time.hour=9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright Where do you wanna leave from? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">south side </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(from.neighborhood=south side) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay What is your destination? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">east liberty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.neighborhood=east liberty) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brighton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.desc=brighton) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to start over? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When do you wanna travel? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">five a m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.hour=5;time.ampm=am) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departing at 7:30 a.m.. Did I get that right? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(time.ampm=am) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departing at 5:30 p.m.. Did I get that right? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to MOREWOOD. Is this right? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtle creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inform(to.neighborhood=turtle creek) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departing at 7:00 a.m.. Is this right? </t>
   </si>
 </sst>
 </file>
@@ -2985,7 +3303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3016,8 +3334,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3058,11 +3382,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3095,6 +3450,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -25290,7 +25657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -25303,19 +25670,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="24" t="s">
         <v>980</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
@@ -26041,4 +26408,1862 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.85850000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.94330000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.9214</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.1085</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.2702</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.85219999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.94820000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.1047</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>993</v>
+      </c>
+      <c r="B8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D8">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.94279999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>993</v>
+      </c>
+      <c r="B9" t="s">
+        <v>969</v>
+      </c>
+      <c r="C9" t="s">
+        <v>996</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.1052</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B10" t="s">
+        <v>969</v>
+      </c>
+      <c r="C10" t="s">
+        <v>990</v>
+      </c>
+      <c r="D10">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.90380000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.2447</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.1832</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="H12" s="21">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.91490000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>994</v>
+      </c>
+      <c r="B14" t="s">
+        <v>967</v>
+      </c>
+      <c r="C14" t="s">
+        <v>989</v>
+      </c>
+      <c r="D14">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.74280000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>994</v>
+      </c>
+      <c r="B15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C15" t="s">
+        <v>996</v>
+      </c>
+      <c r="D15">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>967</v>
+      </c>
+      <c r="C16" t="s">
+        <v>990</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0.2293</v>
+      </c>
+      <c r="G16">
+        <v>0.85680000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.63090000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.8175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>994</v>
+      </c>
+      <c r="B20" t="s">
+        <v>969</v>
+      </c>
+      <c r="C20" t="s">
+        <v>989</v>
+      </c>
+      <c r="D20">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="F20">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.72640000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>994</v>
+      </c>
+      <c r="B21" t="s">
+        <v>969</v>
+      </c>
+      <c r="C21" t="s">
+        <v>996</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.67989999999999995</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="I21" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>994</v>
+      </c>
+      <c r="B22" t="s">
+        <v>969</v>
+      </c>
+      <c r="C22" t="s">
+        <v>990</v>
+      </c>
+      <c r="D22">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.60980000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.75739999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="H24" s="21">
+        <v>3</v>
+      </c>
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>995</v>
+      </c>
+      <c r="B26" t="s">
+        <v>967</v>
+      </c>
+      <c r="C26" t="s">
+        <v>989</v>
+      </c>
+      <c r="D26">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.74180000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>995</v>
+      </c>
+      <c r="B27" t="s">
+        <v>967</v>
+      </c>
+      <c r="C27" t="s">
+        <v>996</v>
+      </c>
+      <c r="D27">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="E27">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>995</v>
+      </c>
+      <c r="B28" t="s">
+        <v>967</v>
+      </c>
+      <c r="C28" t="s">
+        <v>990</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.90720000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.4869</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.63790000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="H31" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>995</v>
+      </c>
+      <c r="B32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C32" t="s">
+        <v>989</v>
+      </c>
+      <c r="D32">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="F32">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="G32">
+        <v>0.79810000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>995</v>
+      </c>
+      <c r="B33" t="s">
+        <v>969</v>
+      </c>
+      <c r="C33" t="s">
+        <v>996</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.7298</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="I33" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>995</v>
+      </c>
+      <c r="B34" t="s">
+        <v>969</v>
+      </c>
+      <c r="C34" t="s">
+        <v>990</v>
+      </c>
+      <c r="D34">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="E34">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.64859999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.6411</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.79049999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="H36" s="21">
+        <v>2</v>
+      </c>
+      <c r="I36" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f>SUM(H4:H36)</f>
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <f>SUM(I4:I36)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="A4:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="15" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C5" s="22">
+        <v>5635</v>
+      </c>
+      <c r="D5" s="22">
+        <v>227</v>
+      </c>
+      <c r="E5" s="23">
+        <v>270</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="22">
+        <v>151</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1338</v>
+      </c>
+      <c r="E6" s="22">
+        <v>18</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="23">
+        <v>325</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1381</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="22">
+        <v>5996</v>
+      </c>
+      <c r="D10" s="22">
+        <v>203</v>
+      </c>
+      <c r="E10" s="23">
+        <v>423</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="22">
+        <v>197</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1816</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="23">
+        <v>781</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>668</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="22">
+        <v>5982</v>
+      </c>
+      <c r="D15" s="22">
+        <v>197</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1261</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="22">
+        <v>228</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1839</v>
+      </c>
+      <c r="E16" s="22">
+        <v>18</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="23">
+        <v>529</v>
+      </c>
+      <c r="D17" s="22">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22">
+        <v>796</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C20" s="22">
+        <v>5453</v>
+      </c>
+      <c r="D20" s="22">
+        <v>225</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1762</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="22">
+        <v>203</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1851</v>
+      </c>
+      <c r="E21" s="22">
+        <v>31</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="23">
+        <v>447</v>
+      </c>
+      <c r="D22" s="22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="22">
+        <v>879</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="C25" s="22">
+        <v>6897</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1591</v>
+      </c>
+      <c r="E25" s="22">
+        <v>964</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="22">
+        <v>205</v>
+      </c>
+      <c r="D26" s="22">
+        <v>671</v>
+      </c>
+      <c r="E26" s="22">
+        <v>505</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="23">
+        <v>1582</v>
+      </c>
+      <c r="D27" s="22">
+        <v>7</v>
+      </c>
+      <c r="E27" s="22">
+        <v>842</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="38" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B2" s="22">
+        <v>99</v>
+      </c>
+      <c r="C2" s="22">
+        <v>467</v>
+      </c>
+      <c r="D2" s="22">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/10.17.2013 Meeting/Result.xlsx
+++ b/doc/10.17.2013 Meeting/Result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1091">
   <si>
     <t>inform</t>
   </si>
@@ -3068,9 +3068,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t xml:space="preserve">output trans </t>
   </si>
   <si>
@@ -3288,6 +3285,15 @@
   </si>
   <si>
     <t xml:space="preserve">Departing at 7:00 a.m.. Is this right? </t>
+  </si>
+  <si>
+    <t>count(hasCorrect)</t>
+  </si>
+  <si>
+    <t>count (NOT hasCorrect)</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -27688,8 +27694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27714,10 +27720,13 @@
       <c r="E1" s="22" t="s">
         <v>1014</v>
       </c>
+      <c r="F1" s="22" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>1015</v>
+        <v>1089</v>
       </c>
       <c r="B2" s="22">
         <v>99</v>
@@ -27731,42 +27740,65 @@
       <c r="E2" s="22">
         <v>13</v>
       </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>353</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22">
+        <v>657</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="E8" s="1">
         <v>-1</v>
@@ -27780,16 +27812,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="E9" s="1">
         <v>-1</v>
@@ -27803,16 +27835,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="E10" s="1">
         <v>-1</v>
@@ -27826,16 +27858,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="E11" s="1">
         <v>-1</v>
@@ -27849,16 +27881,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="E12" s="1">
         <v>-1</v>
@@ -27872,16 +27904,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="E13" s="1">
         <v>-1</v>
@@ -27895,16 +27927,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="E14" s="1">
         <v>-1</v>
@@ -27919,16 +27951,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="E15" s="1">
         <v>-1</v>
@@ -27943,16 +27975,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="E16" s="1">
         <v>-1</v>
@@ -27966,16 +27998,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="E17" s="1">
         <v>-1</v>
@@ -27989,16 +28021,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="E18" s="1">
         <v>-1</v>
@@ -28012,16 +28044,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="E19" s="1">
         <v>-1</v>
@@ -28035,16 +28067,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -28058,16 +28090,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -28081,16 +28113,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="E22" s="1">
         <v>-1</v>
@@ -28104,16 +28136,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="E23" s="1">
         <v>-1</v>
@@ -28127,16 +28159,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="E24" s="1">
         <v>-1</v>
@@ -28150,16 +28182,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="E25" s="1">
         <v>-1</v>
@@ -28173,16 +28205,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="E26" s="1">
         <v>-1</v>
@@ -28196,16 +28228,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>1084</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E27" s="1">
         <v>-1</v>
@@ -28219,16 +28251,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="E28" s="1">
         <v>-1</v>
@@ -28242,16 +28274,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="E29" s="1">
         <v>-1</v>

--- a/doc/10.17.2013 Meeting/Result.xlsx
+++ b/doc/10.17.2013 Meeting/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="495" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="12750" yWindow="495" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1091">
   <si>
     <t>inform</t>
   </si>
@@ -24866,10 +24866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24877,7 +24877,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
@@ -24887,8 +24887,17 @@
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -24904,8 +24913,23 @@
       <c r="E2" s="1">
         <v>0.80500000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
@@ -24918,8 +24942,20 @@
       <c r="E3" s="1">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -24932,8 +24968,20 @@
       <c r="E4" s="2">
         <v>0.85199999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
@@ -24946,8 +24994,20 @@
       <c r="E5" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -24963,8 +25023,23 @@
       <c r="E6" s="2">
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
@@ -24977,8 +25052,20 @@
       <c r="E7" s="2">
         <v>0.80700000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
@@ -24991,8 +25078,20 @@
       <c r="E8" s="1">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -25005,8 +25104,20 @@
       <c r="E9" s="1">
         <v>0.82799999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -25022,8 +25133,23 @@
       <c r="E10" s="1">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -25036,8 +25162,20 @@
       <c r="E11" s="1">
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -25050,8 +25188,20 @@
       <c r="E12" s="1">
         <v>0.82799999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
@@ -25062,6 +25212,18 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="E13" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K13" s="2">
         <v>0.83</v>
       </c>
     </row>
@@ -27694,7 +27856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
